--- a/results/mp/tinybert/corona/confidence/42/desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,175 +40,163 @@
     <t>name</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -566,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -685,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -735,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.95</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -935,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8823529411764706</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9">
-        <v>0.9375</v>
-      </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8571428571428571</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C10">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.9310344827586207</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.2073643410852713</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,45 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,36 +1091,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.8888888888888888</v>
@@ -1181,499 +1121,355 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.8888888888888888</v>
       </c>
       <c r="L14">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>32</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="L15">
+        <v>72</v>
+      </c>
+      <c r="M15">
+        <v>72</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>0.875</v>
+      </c>
+      <c r="L16">
+        <v>112</v>
+      </c>
+      <c r="M16">
+        <v>112</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>0.8732394366197183</v>
+      </c>
+      <c r="L17">
+        <v>124</v>
+      </c>
+      <c r="M17">
+        <v>124</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L18">
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="L19">
+        <v>101</v>
+      </c>
+      <c r="M19">
+        <v>101</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L21">
+        <v>88</v>
+      </c>
+      <c r="M21">
+        <v>88</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L22">
         <v>48</v>
       </c>
-      <c r="M14">
+      <c r="M22">
         <v>48</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K15">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K23">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K16">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L16">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>45</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="K24">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L24">
+        <v>42</v>
+      </c>
+      <c r="M24">
+        <v>42</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>0.8</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L27">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.4678111587982833</v>
-      </c>
-      <c r="C17">
-        <v>109</v>
-      </c>
-      <c r="D17">
-        <v>109</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>124</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.88</v>
-      </c>
-      <c r="L18">
+      <c r="M27">
         <v>22</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2625</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>59</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="L19">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.875</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>21</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.84</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.84</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>21</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="M27">
-        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,18 +1484,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.8028169014084507</v>
+        <v>0.775</v>
       </c>
       <c r="L28">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.7945205479452054</v>
+        <v>0.7519582245430809</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.7692307692307693</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1815,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.7054263565891473</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L33">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1841,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.7</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1867,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.6923076923076923</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1893,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.6818181818181818</v>
+        <v>0.625</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1919,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L37">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1945,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1971,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.5945945945945946</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1997,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.5760869565217391</v>
+        <v>0.575</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2023,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2049,7 +1845,111 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42">
+        <v>0.5481171548117155</v>
+      </c>
+      <c r="L42">
+        <v>131</v>
+      </c>
+      <c r="M42">
+        <v>131</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>0.375</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
